--- a/date_poluare.xlsx
+++ b/date_poluare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C228"/>
+  <dimension ref="A1:C330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,11 +453,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-06-20</t>
+          <t>2023-06-22</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5.02</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -466,11 +466,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-06-21</t>
+          <t>2023-06-23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.17</v>
+        <v>5.4</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -479,11 +479,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023-06-22</t>
+          <t>2023-06-24</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.52</v>
+        <v>5.35</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -492,11 +492,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023-06-23</t>
+          <t>2023-06-25</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.69</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -505,11 +505,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023-06-24</t>
+          <t>2023-06-26</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.98</v>
+        <v>0.09</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2023-06-25</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,11 +531,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2023-06-26</t>
+          <t>2023-06-28</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -544,11 +544,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-06-29</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -557,11 +557,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2023-06-28</t>
+          <t>2023-06-30</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.67</v>
+        <v>2.51</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -570,11 +570,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2023-06-29</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.67</v>
+        <v>5.94</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -583,11 +583,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2023-06-30</t>
+          <t>2023-07-02</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.21</v>
+        <v>6.82</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -596,11 +596,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-07-03</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.47</v>
+        <v>2.27</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -609,11 +609,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2023-07-02</t>
+          <t>2023-07-04</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.61</v>
+        <v>4.33</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -622,11 +622,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
+          <t>2023-07-05</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -635,11 +635,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
+          <t>2023-07-06</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.57</v>
+        <v>2.27</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -648,11 +648,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2023-07-05</t>
+          <t>2023-07-07</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -661,11 +661,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2023-07-06</t>
+          <t>2023-07-08</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -674,11 +674,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2023-07-09</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.03</v>
+        <v>2.75</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -687,11 +687,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2023-07-08</t>
+          <t>2023-07-10</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>5.18</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -700,11 +700,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2023-07-09</t>
+          <t>2023-07-11</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.84</v>
+        <v>4.63</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -713,11 +713,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2023-07-10</t>
+          <t>2023-07-12</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.06</v>
+        <v>0.18</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -726,11 +726,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2023-07-11</t>
+          <t>2023-07-13</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.74</v>
+        <v>1.24</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -739,11 +739,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2023-07-12</t>
+          <t>2023-07-14</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -752,11 +752,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2023-07-15</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -765,11 +765,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.88</v>
+        <v>0.21</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -778,11 +778,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2023-07-15</t>
+          <t>2023-07-17</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -791,11 +791,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2023-07-16</t>
+          <t>2023-07-18</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -804,11 +804,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2023-07-17</t>
+          <t>2023-07-19</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.1</v>
+        <v>1.42</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -817,11 +817,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2023-07-18</t>
+          <t>2023-07-20</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.78</v>
+        <v>4.42</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -830,11 +830,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2023-07-19</t>
+          <t>2023-07-21</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -843,11 +843,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2023-07-20</t>
+          <t>2023-07-22</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.49</v>
+        <v>0.74</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -856,11 +856,11 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2023-07-23</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -869,7 +869,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2023-07-22</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -882,11 +882,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2023-07-23</t>
+          <t>2023-07-25</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>3.78</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -895,11 +895,11 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-07-26</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -908,11 +908,11 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2023-07-27</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -921,11 +921,11 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2023-07-26</t>
+          <t>2023-07-28</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -934,11 +934,11 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2023-07-27</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -947,11 +947,11 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2023-07-28</t>
+          <t>2023-07-30</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -960,11 +960,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-07-31</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.14</v>
+        <v>6.14</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -973,11 +973,11 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2023-07-30</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.32</v>
+        <v>1.29</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -986,11 +986,11 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2023-07-31</t>
+          <t>2023-08-02</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.48</v>
+        <v>0.88</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -999,11 +999,11 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1012,11 +1012,11 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2023-08-02</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.04</v>
+        <v>3.52</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1025,11 +1025,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2023-08-05</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.48</v>
+        <v>0.93</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1038,11 +1038,11 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.79</v>
+        <v>3.46</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2023-08-05</t>
+          <t>2023-08-07</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1064,11 +1064,11 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>2023-08-08</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2023-08-07</t>
+          <t>2023-08-09</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1090,11 +1090,11 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2023-08-08</t>
+          <t>2023-08-10</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2023-08-09</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1116,11 +1116,11 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2023-08-10</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01</v>
+        <v>1.97</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1129,11 +1129,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2023-08-13</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>5.68</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1142,11 +1142,11 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.11</v>
+        <v>4.21</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1155,11 +1155,11 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2023-08-13</t>
+          <t>2023-08-15</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3.6</v>
+        <v>5.22</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1168,11 +1168,11 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1.83</v>
+        <v>6.73</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1181,11 +1181,11 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2023-08-15</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.97</v>
+        <v>5.09</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1194,11 +1194,11 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4.53</v>
+        <v>4.66</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1207,11 +1207,11 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-19</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>3.18</v>
+        <v>3.69</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -1220,11 +1220,11 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2023-08-20</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1.6</v>
+        <v>5.18</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -1233,11 +1233,11 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2023-08-19</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2.17</v>
+        <v>4.05</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -1246,11 +1246,11 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2023-08-20</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>3.14</v>
+        <v>5.76</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -1259,11 +1259,11 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2.24</v>
+        <v>5.35</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -1272,11 +1272,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-08-24</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3.08</v>
+        <v>2.66</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -1285,11 +1285,11 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3.59</v>
+        <v>0.54</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -1298,11 +1298,11 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2023-08-24</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.86</v>
+        <v>3.6</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -1311,11 +1311,11 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1324,11 +1324,11 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-08-28</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2.19</v>
+        <v>1.84</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -1337,11 +1337,11 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.15</v>
+        <v>4.28</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -1350,11 +1350,11 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>3.53</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -1363,11 +1363,11 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -1376,11 +1376,11 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1.59</v>
+        <v>0.76</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -1389,11 +1389,11 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-02</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -1402,11 +1402,11 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2023-09-03</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.12</v>
+        <v>4.34</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2023-09-02</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1428,11 +1428,11 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2023-09-03</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1.67</v>
+        <v>2.97</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -1441,11 +1441,11 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -1454,11 +1454,11 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2.07</v>
+        <v>3.32</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -1467,11 +1467,11 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.86</v>
+        <v>2.93</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -1480,11 +1480,11 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2023-09-07</t>
+          <t>2023-09-09</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1.91</v>
+        <v>5.05</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -1493,11 +1493,11 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-09-10</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1.25</v>
+        <v>3.12</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -1506,11 +1506,11 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2023-09-09</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2.8</v>
+        <v>3.46</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -1519,11 +1519,11 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1.06</v>
+        <v>5.61</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -1532,11 +1532,11 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>3.12</v>
+        <v>1.82</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -1545,11 +1545,11 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2023-09-12</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2.88</v>
+        <v>4.63</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -1558,11 +1558,11 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.14</v>
+        <v>5.71</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -1571,11 +1571,11 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-09-16</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1.41</v>
+        <v>0.12</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -1584,11 +1584,11 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>4.35</v>
+        <v>4.26</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -1597,11 +1597,11 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2023-09-16</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -1610,11 +1610,11 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2023-09-19</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2.76</v>
+        <v>5.84</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -1623,11 +1623,11 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-09-20</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1.06</v>
+        <v>5.45</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -1636,11 +1636,11 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2023-09-19</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2.48</v>
+        <v>6.36</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -1649,11 +1649,11 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2023-09-20</t>
+          <t>2023-09-22</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>5.1</v>
+        <v>1.12</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -1662,11 +1662,11 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2.4</v>
+        <v>4.47</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -1675,11 +1675,11 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2023-09-22</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -1688,11 +1688,11 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2023-09-23</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2.63</v>
+        <v>2.41</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -1701,11 +1701,11 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2023-09-24</t>
+          <t>2023-09-26</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>4.36</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -1714,11 +1714,11 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.89</v>
+        <v>4.84</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -1727,11 +1727,11 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2023-09-26</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2.39</v>
+        <v>5.11</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -1740,11 +1740,11 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-09-29</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>3.55</v>
+        <v>5.15</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -1753,11 +1753,11 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2.76</v>
+        <v>6.45</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -1766,11 +1766,11 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2023-09-29</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>3.43</v>
+        <v>10.56</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -1779,11 +1779,11 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>4.04</v>
+        <v>1.5</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -1792,11 +1792,11 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-10-03</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>9.01</v>
+        <v>6.49</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -1805,11 +1805,11 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -1818,11 +1818,11 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2023-10-03</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>3.62</v>
+        <v>1.92</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -1831,11 +1831,11 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>8.75</v>
+        <v>5.89</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -1844,11 +1844,11 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2023-10-07</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.39</v>
+        <v>6.61</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -1857,11 +1857,11 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2023-10-08</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>4.69</v>
+        <v>5.67</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -1870,11 +1870,11 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2023-10-07</t>
+          <t>2023-10-09</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>4.22</v>
+        <v>2.24</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -1883,11 +1883,11 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2023-10-08</t>
+          <t>2023-10-10</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>3.74</v>
+        <v>5.31</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -1896,11 +1896,11 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2023-10-09</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1.01</v>
+        <v>6.88</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -1909,11 +1909,11 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>3.16</v>
+        <v>10.78</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -1922,11 +1922,11 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-10-13</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>5.44</v>
+        <v>6.29</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -1935,11 +1935,11 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2023-10-14</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>7.17</v>
+        <v>10.18</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -1948,11 +1948,11 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2023-10-13</t>
+          <t>2023-10-15</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>5.89</v>
+        <v>10.61</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -1961,11 +1961,11 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2023-10-14</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -1974,11 +1974,11 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2023-10-15</t>
+          <t>2023-10-17</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>7.22</v>
+        <v>6.82</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -1987,11 +1987,11 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-10-18</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -2000,11 +2000,11 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2023-10-17</t>
+          <t>2023-10-19</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>4.51</v>
+        <v>16.33</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -2013,11 +2013,11 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2023-10-18</t>
+          <t>2023-10-20</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>6.83</v>
+        <v>14.29</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -2026,11 +2026,11 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2023-10-19</t>
+          <t>2023-10-21</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>13</v>
+        <v>12.42</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -2039,11 +2039,11 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2023-10-20</t>
+          <t>2023-10-22</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>11.38</v>
+        <v>21.91</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -2052,11 +2052,11 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2023-10-21</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>12.35</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -2065,11 +2065,11 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2023-10-22</t>
+          <t>2023-10-24</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>9.460000000000001</v>
+        <v>7.67</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -2078,11 +2078,11 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-10-25</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>7.94</v>
+        <v>11.09</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -2091,11 +2091,11 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2023-10-24</t>
+          <t>2023-10-26</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>6.21</v>
+        <v>1.38</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -2104,11 +2104,11 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2023-10-25</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>8.67</v>
+        <v>1.83</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -2117,7 +2117,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2023-10-26</t>
+          <t>2023-10-28</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2130,11 +2130,11 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-10-29</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.62</v>
+        <v>0.22</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -2143,11 +2143,11 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
+          <t>2023-10-30</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -2156,11 +2156,11 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-10-31</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>14.21</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -2169,11 +2169,11 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>2023-11-01</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>9.609999999999999</v>
+        <v>13.28</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -2182,11 +2182,11 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2023-10-31</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>9.44</v>
+        <v>4.11</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -2195,11 +2195,11 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>2023-11-03</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>12.81</v>
+        <v>7.11</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -2208,11 +2208,11 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2023-11-04</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3.53</v>
+        <v>7.25</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -2221,11 +2221,11 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2023-11-03</t>
+          <t>2023-11-05</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>5.05</v>
+        <v>2.16</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -2234,11 +2234,11 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2023-11-04</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -2247,11 +2247,11 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2023-11-05</t>
+          <t>2023-11-07</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1.75</v>
+        <v>2.66</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -2260,11 +2260,11 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2023-11-06</t>
+          <t>2023-11-08</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>16.17</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -2273,11 +2273,11 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2023-11-07</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>3.67</v>
+        <v>3.76</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -2286,11 +2286,11 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2023-11-08</t>
+          <t>2023-11-10</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>13.1</v>
+        <v>19.67</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -2299,11 +2299,11 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2023-11-09</t>
+          <t>2023-11-11</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>2.92</v>
+        <v>9.18</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -2312,11 +2312,11 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2023-11-10</t>
+          <t>2023-11-12</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>17.53</v>
+        <v>0.82</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -2325,11 +2325,11 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2023-11-11</t>
+          <t>2023-11-13</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>4</v>
+        <v>7.45</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -2338,11 +2338,11 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2023-11-12</t>
+          <t>2023-11-14</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -2351,11 +2351,11 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
+          <t>2023-11-15</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>8.81</v>
+        <v>5.7</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -2364,11 +2364,11 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2023-11-14</t>
+          <t>2023-11-16</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>17.23</v>
+        <v>1.31</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -2377,11 +2377,11 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2023-11-15</t>
+          <t>2023-11-17</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>4.53</v>
+        <v>11.6</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -2390,11 +2390,11 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-18</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.67</v>
+        <v>15.14</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -2403,11 +2403,11 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2023-11-17</t>
+          <t>2023-11-19</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>11.53</v>
+        <v>1.56</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -2416,11 +2416,11 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2023-11-18</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>14.15</v>
+        <v>11.51</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -2429,11 +2429,11 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2023-11-19</t>
+          <t>2023-11-21</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.64</v>
+        <v>24.95</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -2442,11 +2442,11 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
+          <t>2023-11-22</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>10.49</v>
+        <v>16.8</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -2455,11 +2455,11 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2023-11-23</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>25.31</v>
+        <v>13.53</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -2468,11 +2468,11 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2023-11-22</t>
+          <t>2023-11-24</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>15.06</v>
+        <v>9.77</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -2481,11 +2481,11 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2023-11-23</t>
+          <t>2023-11-25</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>11.55</v>
+        <v>4.34</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -2494,11 +2494,11 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2023-11-24</t>
+          <t>2023-11-26</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>8.41</v>
+        <v>2.03</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -2507,11 +2507,11 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2023-11-25</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>3.99</v>
+        <v>7.52</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -2520,11 +2520,11 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2023-11-26</t>
+          <t>2023-11-28</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>6.42</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -2533,11 +2533,11 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>6.19</v>
+        <v>15.05</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -2546,11 +2546,11 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-11-30</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>5.94</v>
+        <v>15.85</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -2559,11 +2559,11 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>15.22</v>
+        <v>23.47</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -2572,11 +2572,11 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-02</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>14.79</v>
+        <v>17.18</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -2585,11 +2585,11 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>2023-12-03</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>27.15</v>
+        <v>16.7</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -2598,11 +2598,11 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2023-12-02</t>
+          <t>2023-12-04</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>29.44</v>
+        <v>9.5</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -2611,11 +2611,11 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2023-12-03</t>
+          <t>2023-12-05</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>17.64</v>
+        <v>25.17</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -2624,11 +2624,11 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
+          <t>2023-12-06</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>8.27</v>
+        <v>14.14</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -2637,11 +2637,11 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2023-12-05</t>
+          <t>2023-12-07</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>20.76</v>
+        <v>11.24</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -2650,11 +2650,11 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2023-12-06</t>
+          <t>2023-12-08</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>13.42</v>
+        <v>12.27</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -2663,11 +2663,11 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2023-12-07</t>
+          <t>2023-12-09</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>11.04</v>
+        <v>18.58</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -2676,11 +2676,11 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2023-12-08</t>
+          <t>2023-12-10</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>9.18</v>
+        <v>13.02</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -2689,11 +2689,11 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2023-12-09</t>
+          <t>2023-12-11</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>18.81</v>
+        <v>14.8</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -2702,11 +2702,11 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2023-12-10</t>
+          <t>2023-12-12</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>12.41</v>
+        <v>18.01</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -2715,11 +2715,11 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>2023-12-13</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>15.05</v>
+        <v>21.39</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -2728,11 +2728,11 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2023-12-12</t>
+          <t>2023-12-14</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>18.53</v>
+        <v>34.38</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -2741,11 +2741,11 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2023-12-13</t>
+          <t>2023-12-15</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>23.01</v>
+        <v>14.97</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -2754,11 +2754,11 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2023-12-14</t>
+          <t>2023-12-16</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>31.32</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -2767,11 +2767,11 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2023-12-15</t>
+          <t>2023-12-17</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>14.55</v>
+        <v>16.51</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -2780,11 +2780,11 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2023-12-16</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>7.98</v>
+        <v>20.09</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -2793,11 +2793,11 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2023-12-17</t>
+          <t>2023-12-19</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>16.92</v>
+        <v>20.03</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -2806,11 +2806,11 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2023-12-20</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>21.96</v>
+        <v>168.8</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -2819,11 +2819,11 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>22.66</v>
+        <v>33.42</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -2832,11 +2832,11 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2023-12-20</t>
+          <t>2023-12-22</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>194.8</v>
+        <v>24.23</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -2845,11 +2845,11 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2023-12-23</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>33.65</v>
+        <v>3.7</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -2858,11 +2858,11 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2023-12-22</t>
+          <t>2023-12-24</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>23.98</v>
+        <v>7.05</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -2871,11 +2871,11 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2023-12-23</t>
+          <t>2023-12-25</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>2.76</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -2884,11 +2884,11 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2023-12-24</t>
+          <t>2023-12-26</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>6.91</v>
+        <v>5.75</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -2897,11 +2897,11 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2023-12-25</t>
+          <t>2023-12-27</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>7.25</v>
+        <v>13.56</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -2910,11 +2910,11 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2023-12-26</t>
+          <t>2023-12-28</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>4.88</v>
+        <v>15.2</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -2923,11 +2923,11 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2023-12-27</t>
+          <t>2023-12-29</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>13.04</v>
+        <v>19.68</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -2936,11 +2936,11 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2023-12-28</t>
+          <t>2023-12-30</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>13.94</v>
+        <v>16.1</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -2949,11 +2949,11 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2023-12-29</t>
+          <t>2023-12-31</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>23.43</v>
+        <v>33.46</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -2962,11 +2962,11 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2023-12-30</t>
+          <t>2024-01-01</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>20.86</v>
+        <v>66.23999999999999</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -2975,11 +2975,11 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2024-01-02</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>35.15</v>
+        <v>23.91</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -2988,11 +2988,11 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>69.52</v>
+        <v>10.52</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -3001,11 +3001,11 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-01-04</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>23.15</v>
+        <v>6.57</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -3014,11 +3014,11 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-01-05</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>16.24</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -3027,11 +3027,11 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-06</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>6.18</v>
+        <v>24.44</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -3040,11 +3040,11 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-07</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>7.19</v>
+        <v>33.36</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -3053,11 +3053,11 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2024-01-06</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>19.47</v>
+        <v>0.13</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -3066,11 +3066,11 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2024-01-07</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>24.81</v>
+        <v>13.87</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -3079,11 +3079,11 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>14.48</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -3092,11 +3092,11 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-01-11</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>11.89</v>
+        <v>24.03</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -3105,11 +3105,11 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>15.99</v>
+        <v>27.24</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -3118,11 +3118,11 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-13</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>22.78</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -3131,11 +3131,11 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2024-01-14</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>25.78</v>
+        <v>22.67</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -3144,11 +3144,11 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2024-01-13</t>
+          <t>2024-01-15</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>7.28</v>
+        <v>13.16</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -3157,11 +3157,11 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2024-01-14</t>
+          <t>2024-01-16</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>21.67</v>
+        <v>25.49</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -3170,11 +3170,11 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-01-17</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>13</v>
+        <v>15.03</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -3183,11 +3183,11 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>31.19</v>
+        <v>22.32</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -3196,11 +3196,11 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>13.51</v>
+        <v>19.17</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -3209,11 +3209,11 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-01-20</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>26.82</v>
+        <v>4.05</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -3222,11 +3222,11 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2024-01-21</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>19.72</v>
+        <v>19.37</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -3235,11 +3235,11 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2024-01-20</t>
+          <t>2024-01-22</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>2.44</v>
+        <v>22.84</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -3248,11 +3248,11 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2024-01-21</t>
+          <t>2024-01-23</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>18.51</v>
+        <v>22.84</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -3261,11 +3261,11 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2024-01-24</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>20.82</v>
+        <v>18.25</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -3274,11 +3274,11 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2024-01-23</t>
+          <t>2024-01-25</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>20.2</v>
+        <v>21.57</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -3287,11 +3287,11 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2024-01-24</t>
+          <t>2024-01-26</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>15.04</v>
+        <v>6.72</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -3300,11 +3300,11 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2024-01-25</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>23.16</v>
+        <v>73.69</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -3313,11 +3313,11 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>9.92</v>
+        <v>19.58</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -3326,11 +3326,11 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>33.35</v>
+        <v>19.17</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -3339,11 +3339,11 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2024-01-28</t>
+          <t>2024-01-30</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>21.91</v>
+        <v>12.87</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -3352,11 +3352,11 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>19.79</v>
+        <v>17.9</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -3365,11 +3365,11 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2024-01-30</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>11.83</v>
+        <v>19.64</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -3378,11 +3378,11 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2024-02-02</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>19.03</v>
+        <v>28.66</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -3391,14 +3391,1340 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>24.98</v>
+        <v>24.74</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2024-02-04</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>17.91</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2024-02-06</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2024-02-07</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2024-02-08</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2024-02-09</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>13.07</v>
+      </c>
+      <c r="C234" t="n">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2024-02-10</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>15.64</v>
+      </c>
+      <c r="C235" t="n">
+        <v>21.15</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2024-02-11</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>19.72</v>
+      </c>
+      <c r="C236" t="n">
+        <v>21.95</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C237" t="n">
+        <v>10.48</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2024-02-13</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="C238" t="n">
+        <v>13.41</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2024-02-14</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C239" t="n">
+        <v>13.68</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2024-02-15</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="C240" t="n">
+        <v>13.78</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2024-02-16</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="C241" t="n">
+        <v>14.52</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2024-02-17</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="C242" t="n">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2024-02-18</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="C243" t="n">
+        <v>11.86</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="C244" t="n">
+        <v>13.23</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="C245" t="n">
+        <v>11.74</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C246" t="n">
+        <v>15.32</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="C247" t="n">
+        <v>18.64</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>36.06</v>
+      </c>
+      <c r="C248" t="n">
+        <v>22.37</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2024-02-24</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>28.23</v>
+      </c>
+      <c r="C249" t="n">
+        <v>27.49</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2024-02-25</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C250" t="n">
+        <v>21.66</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>18.21</v>
+      </c>
+      <c r="C251" t="n">
+        <v>13.07</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C252" t="n">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="C253" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="C254" t="n">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C255" t="n">
+        <v>8.970000000000001</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2024-03-02</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="C256" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2024-03-03</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>15.47</v>
+      </c>
+      <c r="C257" t="n">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="C258" t="n">
+        <v>14.71</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="C259" t="n">
+        <v>8.140000000000001</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C260" t="n">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>20.31</v>
+      </c>
+      <c r="C261" t="n">
+        <v>14.93</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>20.19</v>
+      </c>
+      <c r="C262" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2024-03-09</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>20.54</v>
+      </c>
+      <c r="C263" t="n">
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2024-03-10</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>28</v>
+      </c>
+      <c r="C264" t="n">
+        <v>20.68</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>22.27</v>
+      </c>
+      <c r="C265" t="n">
+        <v>22.05</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="C266" t="n">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="C267" t="n">
+        <v>14.09</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>0</v>
+      </c>
+      <c r="C268" t="n">
+        <v>10.74</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>15.92</v>
+      </c>
+      <c r="C269" t="n">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="C270" t="n">
+        <v>20.23</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>19.12</v>
+      </c>
+      <c r="C271" t="n">
+        <v>19.16</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>20.84</v>
+      </c>
+      <c r="C272" t="n">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="C273" t="n">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>14.67</v>
+      </c>
+      <c r="C274" t="n">
+        <v>12.24</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2024-03-21</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="C275" t="n">
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="C276" t="n">
+        <v>9.619999999999999</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="C277" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>16.84</v>
+      </c>
+      <c r="C278" t="n">
+        <v>21.52</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C279" t="n">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2024-03-26</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="C280" t="n">
+        <v>16.77</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2024-03-27</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="C281" t="n">
+        <v>13.89</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C282" t="n">
+        <v>10.36</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C283" t="n">
+        <v>15.87</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2024-03-30</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C284" t="n">
+        <v>23.47</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2024-03-31</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="C285" t="n">
+        <v>18.53</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="C286" t="n">
+        <v>26.78</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2024-04-02</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C287" t="n">
+        <v>23.74</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2024-04-03</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="C288" t="n">
+        <v>14.76</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2024-04-04</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="C289" t="n">
+        <v>15.71</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2024-04-05</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="C290" t="n">
+        <v>16.45</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2024-04-06</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="C291" t="n">
+        <v>22.51</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2024-04-07</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C292" t="n">
+        <v>15.43</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="C293" t="n">
+        <v>19.66</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2024-04-09</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C294" t="n">
+        <v>17.84</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2024-04-10</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="C295" t="n">
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2024-04-11</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="C296" t="n">
+        <v>17.35</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2024-04-12</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="C297" t="n">
+        <v>18.17</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="C298" t="n">
+        <v>14.24</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2024-04-14</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="C299" t="n">
+        <v>22.27</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="C300" t="n">
+        <v>15.54</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C301" t="n">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2024-04-17</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C302" t="n">
+        <v>16.45</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2024-04-18</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="C303" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2024-04-19</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C304" t="n">
+        <v>17.09</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2024-04-20</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="C305" t="n">
+        <v>14.52</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2024-04-21</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="C306" t="n">
+        <v>16.66</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="C307" t="n">
+        <v>12.79</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2024-04-23</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="C308" t="n">
+        <v>12.68</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2024-04-24</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="C309" t="n">
+        <v>10.48</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2024-04-25</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="C310" t="n">
+        <v>14.56</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2024-04-26</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="C311" t="n">
+        <v>11.19</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2024-04-27</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="C312" t="n">
+        <v>14.73</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2024-04-28</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="C313" t="n">
+        <v>16.02</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2024-04-29</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C314" t="n">
+        <v>13.54</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2024-04-30</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="C315" t="n">
+        <v>10.68</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="C316" t="n">
+        <v>14.78</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C317" t="n">
+        <v>13.77</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="C318" t="n">
+        <v>11.23</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2024-05-04</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C319" t="n">
+        <v>13.71</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2024-05-05</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="C320" t="n">
+        <v>15.27</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="C321" t="n">
+        <v>15.22</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="C322" t="n">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="C323" t="n">
+        <v>12.64</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2024-05-09</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="C324" t="n">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="C325" t="n">
+        <v>15.02</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2024-05-11</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="C326" t="n">
+        <v>16.41</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2024-05-12</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C327" t="n">
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="C328" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C329" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="C330" t="n">
+        <v>9.710000000000001</v>
       </c>
     </row>
   </sheetData>
